--- a/Area de Proceso REQM/LMREQM_V0.2_2015.xlsx
+++ b/Area de Proceso REQM/LMREQM_V0.2_2015.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aol.UTP\12\Proyecto I\Proyecto TopBody\SistemaDeMatricula-ParaSocios-TopBody\Area de Proceso REQM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1260" windowWidth="20640" windowHeight="9660" tabRatio="767" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="1710" windowWidth="20640" windowHeight="9660" tabRatio="767"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="34" r:id="rId1"/>
@@ -42,7 +47,8 @@
     <definedName name="TipoProyecto">'Diccionario de atributos-valor'!$E$20:$E$25</definedName>
     <definedName name="TipoRequerimientoDeSistema">'Diccionario de atributos-valor'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -988,7 +994,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1288,9 +1294,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1306,190 +1309,176 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1499,10 +1488,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1520,6 +1505,51 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1529,9 +1559,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1544,53 +1571,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1757,15 +1772,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76839</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>859846</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>599210</xdr:rowOff>
+      <xdr:colOff>1341814</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1782,15 +1797,14 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="438150" y="200025"/>
-          <a:ext cx="783646" cy="561110"/>
+          <a:off x="476250" y="76839"/>
+          <a:ext cx="1227514" cy="847085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2028,7 +2042,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2063,7 +2077,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2274,7 +2288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -2302,15 +2316,15 @@
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="55"/>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
       <c r="I2" s="55"/>
     </row>
     <row r="3" spans="1:9">
@@ -2351,38 +2365,38 @@
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1">
       <c r="A5" s="55"/>
-      <c r="B5" s="115">
+      <c r="B5" s="114">
         <v>1</v>
       </c>
-      <c r="C5" s="116">
+      <c r="C5" s="115">
         <v>0.1</v>
       </c>
-      <c r="D5" s="117">
+      <c r="D5" s="116">
         <v>42285</v>
       </c>
-      <c r="E5" s="115" t="s">
+      <c r="E5" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="F5" s="115" t="s">
+      <c r="F5" s="114" t="s">
         <v>122</v>
       </c>
-      <c r="G5" s="115" t="s">
+      <c r="G5" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="115" t="s">
+      <c r="H5" s="114" t="s">
         <v>123</v>
       </c>
       <c r="I5" s="55"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1">
       <c r="A6" s="55"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
       <c r="I6" s="55"/>
     </row>
   </sheetData>
@@ -2437,12 +2451,12 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="77"/>
-      <c r="E2" s="143" t="s">
+      <c r="E2" s="153" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="9"/>
@@ -2451,12 +2465,12 @@
       <c r="D3" s="110" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="144" t="s">
+      <c r="E3" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
     </row>
     <row r="4" spans="1:8" s="82" customFormat="1">
       <c r="A4" s="78"/>
@@ -2483,13 +2497,13 @@
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="151" t="s">
+      <c r="D6" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="151"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
     </row>
     <row r="7" spans="1:8" s="82" customFormat="1">
       <c r="A7" s="78"/>
@@ -2515,15 +2529,15 @@
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="146" t="s">
+      <c r="D9" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="147"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="152"/>
+      <c r="H9" s="162"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="9"/>
@@ -2537,14 +2551,14 @@
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="148" t="s">
+      <c r="D11" s="158" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="148"/>
-      <c r="G11" s="153" t="s">
+      <c r="E11" s="158"/>
+      <c r="G11" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="153"/>
+      <c r="H11" s="163"/>
     </row>
     <row r="12" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A12" s="9"/>
@@ -2557,14 +2571,14 @@
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="149" t="s">
+      <c r="D13" s="159" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="149"/>
-      <c r="G13" s="153" t="s">
+      <c r="E13" s="159"/>
+      <c r="G13" s="163" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="153"/>
+      <c r="H13" s="163"/>
     </row>
     <row r="14" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A14" s="9"/>
@@ -2575,14 +2589,14 @@
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="150" t="s">
+      <c r="D15" s="160" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="150"/>
-      <c r="G15" s="153" t="s">
+      <c r="E15" s="160"/>
+      <c r="G15" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="153"/>
+      <c r="H15" s="163"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="7"/>
@@ -2593,14 +2607,14 @@
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="142" t="s">
+      <c r="D17" s="148" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="142"/>
-      <c r="G17" s="153" t="s">
+      <c r="E17" s="148"/>
+      <c r="G17" s="163" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="153"/>
+      <c r="H17" s="163"/>
     </row>
     <row r="18" spans="1:8" s="17" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="15"/>
@@ -2617,79 +2631,79 @@
       <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:8" s="19" customFormat="1" ht="16.5" customHeight="1">
-      <c r="D20" s="131" t="s">
+      <c r="D20" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="131"/>
-      <c r="F20" s="131"/>
-      <c r="G20" s="131"/>
-      <c r="H20" s="131"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="127"/>
+      <c r="G20" s="127"/>
+      <c r="H20" s="127"/>
     </row>
     <row r="21" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D21" s="120" t="s">
+      <c r="D21" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="121"/>
-      <c r="F21" s="132" t="s">
+      <c r="E21" s="150"/>
+      <c r="F21" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="132"/>
-      <c r="H21" s="132"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="128"/>
     </row>
     <row r="22" spans="1:8" s="19" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D22" s="135" t="s">
+      <c r="D22" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="136"/>
-      <c r="F22" s="154" t="s">
+      <c r="E22" s="152"/>
+      <c r="F22" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="154"/>
-      <c r="H22" s="154"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="126"/>
     </row>
     <row r="23" spans="1:8" s="19" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D23" s="135" t="s">
+      <c r="D23" s="151" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="136"/>
-      <c r="F23" s="154" t="s">
+      <c r="E23" s="152"/>
+      <c r="F23" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="154"/>
-      <c r="H23" s="154"/>
+      <c r="G23" s="126"/>
+      <c r="H23" s="126"/>
     </row>
     <row r="24" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D24" s="135" t="s">
+      <c r="D24" s="151" t="s">
         <v>98</v>
       </c>
-      <c r="E24" s="136"/>
-      <c r="F24" s="158" t="s">
+      <c r="E24" s="152"/>
+      <c r="F24" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="G24" s="159"/>
-      <c r="H24" s="160"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="145"/>
     </row>
     <row r="25" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D25" s="135" t="s">
+      <c r="D25" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="136"/>
-      <c r="F25" s="154" t="s">
+      <c r="E25" s="152"/>
+      <c r="F25" s="126" t="s">
         <v>99</v>
       </c>
-      <c r="G25" s="154"/>
-      <c r="H25" s="154"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="126"/>
     </row>
     <row r="26" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D26" s="135" t="s">
+      <c r="D26" s="151" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="136"/>
-      <c r="F26" s="154" t="s">
+      <c r="E26" s="152"/>
+      <c r="F26" s="126" t="s">
         <v>87</v>
       </c>
-      <c r="G26" s="154"/>
-      <c r="H26" s="154"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="126"/>
     </row>
     <row r="27" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1">
       <c r="D27" s="50"/>
@@ -2706,187 +2720,187 @@
       <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:8" s="19" customFormat="1" ht="16.5" customHeight="1">
-      <c r="D29" s="131" t="s">
+      <c r="D29" s="127" t="s">
         <v>100</v>
       </c>
-      <c r="E29" s="131"/>
-      <c r="F29" s="131"/>
-      <c r="G29" s="131"/>
-      <c r="H29" s="131"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="127"/>
     </row>
     <row r="30" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D30" s="120" t="s">
+      <c r="D30" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="121"/>
-      <c r="F30" s="132" t="s">
+      <c r="E30" s="150"/>
+      <c r="F30" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="G30" s="132"/>
-      <c r="H30" s="132"/>
+      <c r="G30" s="128"/>
+      <c r="H30" s="128"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="126" t="s">
+      <c r="D31" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="126"/>
-      <c r="F31" s="127"/>
-      <c r="G31" s="127"/>
-      <c r="H31" s="127"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="130"/>
+      <c r="G31" s="130"/>
+      <c r="H31" s="130"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
-      <c r="D32" s="137" t="s">
+      <c r="D32" s="164" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="138"/>
-      <c r="F32" s="128" t="s">
+      <c r="E32" s="165"/>
+      <c r="F32" s="131" t="s">
         <v>76</v>
       </c>
-      <c r="G32" s="129"/>
-      <c r="H32" s="130"/>
+      <c r="G32" s="132"/>
+      <c r="H32" s="133"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="137" t="s">
+      <c r="D33" s="164" t="s">
         <v>93</v>
       </c>
-      <c r="E33" s="138"/>
-      <c r="F33" s="128" t="s">
+      <c r="E33" s="165"/>
+      <c r="F33" s="131" t="s">
         <v>64</v>
       </c>
-      <c r="G33" s="129"/>
-      <c r="H33" s="130"/>
+      <c r="G33" s="132"/>
+      <c r="H33" s="133"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="162" t="s">
+      <c r="D34" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="162"/>
-      <c r="F34" s="163"/>
-      <c r="G34" s="163"/>
-      <c r="H34" s="163"/>
+      <c r="E34" s="134"/>
+      <c r="F34" s="135"/>
+      <c r="G34" s="135"/>
+      <c r="H34" s="135"/>
     </row>
     <row r="35" spans="1:8" ht="24.75" customHeight="1">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="137" t="s">
+      <c r="D35" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="138"/>
-      <c r="F35" s="155" t="s">
+      <c r="E35" s="165"/>
+      <c r="F35" s="136" t="s">
         <v>72</v>
       </c>
-      <c r="G35" s="156"/>
-      <c r="H35" s="157"/>
+      <c r="G35" s="137"/>
+      <c r="H35" s="138"/>
     </row>
     <row r="36" spans="1:8" s="19" customFormat="1" ht="27.75" customHeight="1">
-      <c r="D36" s="133" t="s">
+      <c r="D36" s="170" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="134"/>
-      <c r="F36" s="155" t="s">
+      <c r="E36" s="171"/>
+      <c r="F36" s="136" t="s">
         <v>74</v>
       </c>
-      <c r="G36" s="156"/>
-      <c r="H36" s="157"/>
+      <c r="G36" s="137"/>
+      <c r="H36" s="138"/>
     </row>
     <row r="37" spans="1:8" ht="24.75" customHeight="1">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
-      <c r="D37" s="137" t="s">
+      <c r="D37" s="164" t="s">
         <v>59</v>
       </c>
-      <c r="E37" s="138"/>
-      <c r="F37" s="155" t="s">
+      <c r="E37" s="165"/>
+      <c r="F37" s="136" t="s">
         <v>101</v>
       </c>
-      <c r="G37" s="156"/>
-      <c r="H37" s="157"/>
+      <c r="G37" s="137"/>
+      <c r="H37" s="138"/>
     </row>
     <row r="38" spans="1:8" ht="42" customHeight="1">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
-      <c r="D38" s="137" t="s">
+      <c r="D38" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="138"/>
-      <c r="F38" s="155" t="s">
+      <c r="E38" s="165"/>
+      <c r="F38" s="136" t="s">
         <v>95</v>
       </c>
-      <c r="G38" s="156"/>
-      <c r="H38" s="157"/>
+      <c r="G38" s="137"/>
+      <c r="H38" s="138"/>
     </row>
     <row r="39" spans="1:8" ht="354" customHeight="1">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
-      <c r="D39" s="118" t="s">
+      <c r="D39" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="119"/>
-      <c r="F39" s="139" t="s">
+      <c r="E39" s="167"/>
+      <c r="F39" s="141" t="s">
         <v>124</v>
       </c>
-      <c r="G39" s="140"/>
-      <c r="H39" s="140"/>
+      <c r="G39" s="146"/>
+      <c r="H39" s="146"/>
     </row>
     <row r="40" spans="1:8" s="19" customFormat="1" ht="25.5" customHeight="1">
-      <c r="D40" s="124" t="s">
+      <c r="D40" s="168" t="s">
         <v>94</v>
       </c>
-      <c r="E40" s="125"/>
-      <c r="F40" s="141" t="s">
+      <c r="E40" s="169"/>
+      <c r="F40" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="G40" s="140"/>
-      <c r="H40" s="140"/>
+      <c r="G40" s="146"/>
+      <c r="H40" s="146"/>
     </row>
     <row r="41" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D41" s="124" t="s">
+      <c r="D41" s="168" t="s">
         <v>80</v>
       </c>
-      <c r="E41" s="125"/>
-      <c r="F41" s="139" t="s">
+      <c r="E41" s="169"/>
+      <c r="F41" s="141" t="s">
         <v>84</v>
       </c>
-      <c r="G41" s="164"/>
-      <c r="H41" s="164"/>
+      <c r="G41" s="142"/>
+      <c r="H41" s="142"/>
     </row>
     <row r="42" spans="1:8" s="19" customFormat="1" ht="24" customHeight="1">
-      <c r="D42" s="133" t="s">
+      <c r="D42" s="170" t="s">
         <v>81</v>
       </c>
-      <c r="E42" s="134"/>
-      <c r="F42" s="139" t="s">
+      <c r="E42" s="171"/>
+      <c r="F42" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="G42" s="164"/>
-      <c r="H42" s="164"/>
+      <c r="G42" s="142"/>
+      <c r="H42" s="142"/>
     </row>
     <row r="43" spans="1:8" s="19" customFormat="1" ht="25.5" customHeight="1">
-      <c r="D43" s="133" t="s">
+      <c r="D43" s="170" t="s">
         <v>78</v>
       </c>
-      <c r="E43" s="134"/>
-      <c r="F43" s="139" t="s">
+      <c r="E43" s="171"/>
+      <c r="F43" s="141" t="s">
         <v>79</v>
       </c>
-      <c r="G43" s="164"/>
-      <c r="H43" s="164"/>
+      <c r="G43" s="142"/>
+      <c r="H43" s="142"/>
     </row>
     <row r="44" spans="1:8" s="19" customFormat="1">
       <c r="D44" s="51"/>
@@ -2906,118 +2920,118 @@
       <c r="H45" s="76"/>
     </row>
     <row r="46" spans="1:8" s="19" customFormat="1" ht="16.5" customHeight="1">
-      <c r="D46" s="131" t="s">
+      <c r="D46" s="127" t="s">
         <v>106</v>
       </c>
-      <c r="E46" s="131"/>
-      <c r="F46" s="131"/>
-      <c r="G46" s="131"/>
-      <c r="H46" s="131"/>
+      <c r="E46" s="127"/>
+      <c r="F46" s="127"/>
+      <c r="G46" s="127"/>
+      <c r="H46" s="127"/>
     </row>
     <row r="47" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D47" s="120" t="s">
+      <c r="D47" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="E47" s="121"/>
-      <c r="F47" s="132" t="s">
+      <c r="E47" s="150"/>
+      <c r="F47" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="G47" s="132"/>
-      <c r="H47" s="132"/>
+      <c r="G47" s="128"/>
+      <c r="H47" s="128"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
-      <c r="D48" s="126" t="s">
+      <c r="D48" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="E48" s="126"/>
-      <c r="F48" s="127"/>
-      <c r="G48" s="127"/>
-      <c r="H48" s="127"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="130"/>
+      <c r="G48" s="130"/>
+      <c r="H48" s="130"/>
     </row>
     <row r="49" spans="1:255" s="69" customFormat="1">
       <c r="A49" s="68"/>
       <c r="B49" s="68"/>
       <c r="C49" s="68"/>
-      <c r="D49" s="118" t="s">
+      <c r="D49" s="166" t="s">
         <v>71</v>
       </c>
-      <c r="E49" s="119"/>
-      <c r="F49" s="128" t="s">
+      <c r="E49" s="167"/>
+      <c r="F49" s="131" t="s">
         <v>76</v>
       </c>
-      <c r="G49" s="129"/>
-      <c r="H49" s="130"/>
+      <c r="G49" s="132"/>
+      <c r="H49" s="133"/>
     </row>
     <row r="50" spans="1:255" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A50" s="68"/>
       <c r="B50" s="68"/>
       <c r="C50" s="68"/>
-      <c r="D50" s="124" t="s">
+      <c r="D50" s="168" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="125"/>
-      <c r="F50" s="128" t="s">
+      <c r="E50" s="169"/>
+      <c r="F50" s="131" t="s">
         <v>64</v>
       </c>
-      <c r="G50" s="129"/>
-      <c r="H50" s="130"/>
+      <c r="G50" s="132"/>
+      <c r="H50" s="133"/>
     </row>
     <row r="51" spans="1:255" s="69" customFormat="1">
       <c r="A51" s="68"/>
       <c r="B51" s="68"/>
       <c r="C51" s="68"/>
-      <c r="D51" s="126" t="s">
+      <c r="D51" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="E51" s="126"/>
-      <c r="F51" s="127"/>
-      <c r="G51" s="127"/>
-      <c r="H51" s="127"/>
+      <c r="E51" s="129"/>
+      <c r="F51" s="130"/>
+      <c r="G51" s="130"/>
+      <c r="H51" s="130"/>
     </row>
     <row r="52" spans="1:255" s="69" customFormat="1">
       <c r="A52" s="68"/>
       <c r="B52" s="68"/>
       <c r="C52" s="68"/>
-      <c r="D52" s="118" t="s">
+      <c r="D52" s="166" t="s">
         <v>28</v>
       </c>
-      <c r="E52" s="119"/>
-      <c r="F52" s="128" t="s">
+      <c r="E52" s="167"/>
+      <c r="F52" s="131" t="s">
         <v>107</v>
       </c>
-      <c r="G52" s="129"/>
-      <c r="H52" s="130"/>
+      <c r="G52" s="132"/>
+      <c r="H52" s="133"/>
     </row>
     <row r="53" spans="1:255" s="69" customFormat="1">
       <c r="A53" s="68"/>
       <c r="B53" s="68"/>
       <c r="C53" s="68"/>
-      <c r="D53" s="118" t="s">
+      <c r="D53" s="166" t="s">
         <v>29</v>
       </c>
-      <c r="E53" s="119"/>
-      <c r="F53" s="128" t="s">
+      <c r="E53" s="167"/>
+      <c r="F53" s="131" t="s">
         <v>86</v>
       </c>
-      <c r="G53" s="129"/>
-      <c r="H53" s="130"/>
+      <c r="G53" s="132"/>
+      <c r="H53" s="133"/>
     </row>
     <row r="54" spans="1:255" s="69" customFormat="1">
       <c r="A54" s="68"/>
       <c r="B54" s="68"/>
       <c r="C54" s="68"/>
-      <c r="D54" s="118" t="s">
+      <c r="D54" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="119"/>
-      <c r="F54" s="128" t="s">
+      <c r="E54" s="167"/>
+      <c r="F54" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="G54" s="129"/>
-      <c r="H54" s="130"/>
+      <c r="G54" s="132"/>
+      <c r="H54" s="133"/>
     </row>
     <row r="55" spans="1:255" s="19" customFormat="1" ht="13.5" customHeight="1">
       <c r="D55" s="86"/>
@@ -3037,64 +3051,64 @@
       <c r="H56" s="76"/>
     </row>
     <row r="57" spans="1:255" s="19" customFormat="1" ht="16.5" customHeight="1">
-      <c r="D57" s="131" t="s">
+      <c r="D57" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="E57" s="131"/>
-      <c r="F57" s="131"/>
-      <c r="G57" s="131"/>
-      <c r="H57" s="131"/>
+      <c r="E57" s="127"/>
+      <c r="F57" s="127"/>
+      <c r="G57" s="127"/>
+      <c r="H57" s="127"/>
     </row>
     <row r="58" spans="1:255" s="19" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D58" s="120" t="s">
+      <c r="D58" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="E58" s="121"/>
-      <c r="F58" s="132" t="s">
+      <c r="E58" s="150"/>
+      <c r="F58" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="G58" s="132"/>
-      <c r="H58" s="132"/>
+      <c r="G58" s="128"/>
+      <c r="H58" s="128"/>
     </row>
     <row r="59" spans="1:255">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
-      <c r="D59" s="126" t="s">
+      <c r="D59" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="E59" s="126"/>
-      <c r="F59" s="127"/>
-      <c r="G59" s="127"/>
-      <c r="H59" s="127"/>
+      <c r="E59" s="129"/>
+      <c r="F59" s="130"/>
+      <c r="G59" s="130"/>
+      <c r="H59" s="130"/>
     </row>
     <row r="60" spans="1:255" s="70" customFormat="1">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
-      <c r="D60" s="118" t="s">
+      <c r="D60" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="E60" s="119"/>
-      <c r="F60" s="128" t="s">
+      <c r="E60" s="167"/>
+      <c r="F60" s="131" t="s">
         <v>67</v>
       </c>
-      <c r="G60" s="129"/>
-      <c r="H60" s="130"/>
+      <c r="G60" s="132"/>
+      <c r="H60" s="133"/>
     </row>
     <row r="61" spans="1:255" s="70" customFormat="1">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
-      <c r="D61" s="118" t="s">
+      <c r="D61" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="E61" s="119"/>
-      <c r="F61" s="128" t="s">
+      <c r="E61" s="167"/>
+      <c r="F61" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="G61" s="129"/>
-      <c r="H61" s="130"/>
+      <c r="G61" s="132"/>
+      <c r="H61" s="133"/>
     </row>
     <row r="62" spans="1:255" ht="18" customHeight="1">
       <c r="A62" s="7"/>
@@ -3107,13 +3121,13 @@
       <c r="H62" s="85"/>
     </row>
     <row r="63" spans="1:255" s="19" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D63" s="131" t="s">
+      <c r="D63" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="E63" s="131"/>
-      <c r="F63" s="131"/>
-      <c r="G63" s="131"/>
-      <c r="H63" s="131"/>
+      <c r="E63" s="127"/>
+      <c r="F63" s="127"/>
+      <c r="G63" s="127"/>
+      <c r="H63" s="127"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
@@ -3365,83 +3379,83 @@
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
-      <c r="D64" s="120" t="s">
+      <c r="D64" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="E64" s="121"/>
-      <c r="F64" s="132" t="s">
+      <c r="E64" s="150"/>
+      <c r="F64" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="G64" s="132"/>
-      <c r="H64" s="132"/>
+      <c r="G64" s="128"/>
+      <c r="H64" s="128"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="15"/>
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
-      <c r="D65" s="126" t="s">
+      <c r="D65" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="E65" s="126"/>
-      <c r="F65" s="127"/>
-      <c r="G65" s="127"/>
-      <c r="H65" s="127"/>
+      <c r="E65" s="129"/>
+      <c r="F65" s="130"/>
+      <c r="G65" s="130"/>
+      <c r="H65" s="130"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="15"/>
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
-      <c r="D66" s="122" t="s">
+      <c r="D66" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="123"/>
-      <c r="F66" s="128" t="s">
+      <c r="E66" s="140"/>
+      <c r="F66" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="G66" s="129"/>
-      <c r="H66" s="130"/>
+      <c r="G66" s="132"/>
+      <c r="H66" s="133"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="15"/>
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
-      <c r="D67" s="122" t="s">
+      <c r="D67" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="E67" s="123"/>
-      <c r="F67" s="128" t="s">
+      <c r="E67" s="140"/>
+      <c r="F67" s="131" t="s">
         <v>109</v>
       </c>
-      <c r="G67" s="129"/>
-      <c r="H67" s="130"/>
+      <c r="G67" s="132"/>
+      <c r="H67" s="133"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="15"/>
       <c r="B68" s="15"/>
       <c r="C68" s="15"/>
-      <c r="D68" s="122" t="s">
+      <c r="D68" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="E68" s="123"/>
-      <c r="F68" s="128" t="s">
+      <c r="E68" s="140"/>
+      <c r="F68" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="G68" s="129"/>
-      <c r="H68" s="130"/>
+      <c r="G68" s="132"/>
+      <c r="H68" s="133"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="15"/>
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
-      <c r="D69" s="122" t="s">
+      <c r="D69" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="E69" s="123"/>
-      <c r="F69" s="128" t="s">
+      <c r="E69" s="140"/>
+      <c r="F69" s="131" t="s">
         <v>111</v>
       </c>
-      <c r="G69" s="129"/>
-      <c r="H69" s="130"/>
+      <c r="G69" s="132"/>
+      <c r="H69" s="133"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="15"/>
@@ -3487,9 +3501,9 @@
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
-      <c r="D74" s="161"/>
-      <c r="E74" s="161"/>
-      <c r="F74" s="161"/>
+      <c r="D74" s="124"/>
+      <c r="E74" s="124"/>
+      <c r="F74" s="124"/>
       <c r="G74" s="17"/>
       <c r="H74" s="17"/>
     </row>
@@ -3517,9 +3531,9 @@
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
-      <c r="D77" s="161"/>
-      <c r="E77" s="161"/>
-      <c r="F77" s="161"/>
+      <c r="D77" s="124"/>
+      <c r="E77" s="124"/>
+      <c r="F77" s="124"/>
       <c r="G77" s="23"/>
       <c r="H77" s="17"/>
     </row>
@@ -3567,9 +3581,9 @@
       <c r="A82" s="15"/>
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
-      <c r="D82" s="161"/>
-      <c r="E82" s="161"/>
-      <c r="F82" s="161"/>
+      <c r="D82" s="124"/>
+      <c r="E82" s="124"/>
+      <c r="F82" s="124"/>
       <c r="G82" s="23"/>
       <c r="H82" s="17"/>
     </row>
@@ -3634,9 +3648,9 @@
       <c r="A89" s="15"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
-      <c r="D89" s="161"/>
-      <c r="E89" s="161"/>
-      <c r="F89" s="161"/>
+      <c r="D89" s="124"/>
+      <c r="E89" s="124"/>
+      <c r="F89" s="124"/>
       <c r="G89" s="17"/>
       <c r="H89" s="17"/>
     </row>
@@ -3644,9 +3658,9 @@
       <c r="A90" s="15"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
-      <c r="D90" s="161"/>
-      <c r="E90" s="161"/>
-      <c r="F90" s="161"/>
+      <c r="D90" s="124"/>
+      <c r="E90" s="124"/>
+      <c r="F90" s="124"/>
       <c r="G90" s="17"/>
       <c r="H90" s="17"/>
     </row>
@@ -3654,9 +3668,9 @@
       <c r="A91" s="15"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
-      <c r="D91" s="161"/>
-      <c r="E91" s="161"/>
-      <c r="F91" s="161"/>
+      <c r="D91" s="124"/>
+      <c r="E91" s="124"/>
+      <c r="F91" s="124"/>
       <c r="G91" s="17"/>
       <c r="H91" s="17"/>
     </row>
@@ -3664,9 +3678,9 @@
       <c r="A92" s="15"/>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
-      <c r="D92" s="161"/>
-      <c r="E92" s="161"/>
-      <c r="F92" s="161"/>
+      <c r="D92" s="124"/>
+      <c r="E92" s="124"/>
+      <c r="F92" s="124"/>
       <c r="G92" s="23"/>
       <c r="H92" s="17"/>
     </row>
@@ -3915,8 +3929,8 @@
       <c r="D117" s="32"/>
       <c r="E117" s="32"/>
       <c r="F117" s="17"/>
-      <c r="G117" s="165"/>
-      <c r="H117" s="165"/>
+      <c r="G117" s="123"/>
+      <c r="H117" s="123"/>
     </row>
     <row r="118" spans="1:8" ht="18.75" customHeight="1">
       <c r="A118" s="15"/>
@@ -4202,11 +4216,11 @@
       <c r="A146" s="17"/>
       <c r="B146" s="17"/>
       <c r="C146" s="17"/>
-      <c r="D146" s="166"/>
-      <c r="E146" s="166"/>
-      <c r="F146" s="166"/>
-      <c r="G146" s="166"/>
-      <c r="H146" s="166"/>
+      <c r="D146" s="125"/>
+      <c r="E146" s="125"/>
+      <c r="F146" s="125"/>
+      <c r="G146" s="125"/>
+      <c r="H146" s="125"/>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="17"/>
@@ -4224,9 +4238,9 @@
       <c r="C148" s="17"/>
       <c r="D148" s="42"/>
       <c r="E148" s="42"/>
-      <c r="F148" s="167"/>
-      <c r="G148" s="167"/>
-      <c r="H148" s="167"/>
+      <c r="F148" s="119"/>
+      <c r="G148" s="119"/>
+      <c r="H148" s="119"/>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="17"/>
@@ -4244,9 +4258,9 @@
       <c r="C150" s="17"/>
       <c r="D150" s="44"/>
       <c r="E150" s="44"/>
-      <c r="F150" s="168"/>
-      <c r="G150" s="167"/>
-      <c r="H150" s="167"/>
+      <c r="F150" s="121"/>
+      <c r="G150" s="119"/>
+      <c r="H150" s="119"/>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="17"/>
@@ -4264,9 +4278,9 @@
       <c r="C152" s="17"/>
       <c r="D152" s="42"/>
       <c r="E152" s="42"/>
-      <c r="F152" s="167"/>
-      <c r="G152" s="167"/>
-      <c r="H152" s="167"/>
+      <c r="F152" s="119"/>
+      <c r="G152" s="119"/>
+      <c r="H152" s="119"/>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="17"/>
@@ -4284,9 +4298,9 @@
       <c r="C154" s="17"/>
       <c r="D154" s="44"/>
       <c r="E154" s="44"/>
-      <c r="F154" s="168"/>
-      <c r="G154" s="167"/>
-      <c r="H154" s="167"/>
+      <c r="F154" s="121"/>
+      <c r="G154" s="119"/>
+      <c r="H154" s="119"/>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="17"/>
@@ -4314,9 +4328,9 @@
       <c r="C157" s="17"/>
       <c r="D157" s="42"/>
       <c r="E157" s="42"/>
-      <c r="F157" s="167"/>
-      <c r="G157" s="167"/>
-      <c r="H157" s="167"/>
+      <c r="F157" s="119"/>
+      <c r="G157" s="119"/>
+      <c r="H157" s="119"/>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="17"/>
@@ -4334,9 +4348,9 @@
       <c r="C159" s="17"/>
       <c r="D159" s="44"/>
       <c r="E159" s="44"/>
-      <c r="F159" s="168"/>
-      <c r="G159" s="167"/>
-      <c r="H159" s="167"/>
+      <c r="F159" s="121"/>
+      <c r="G159" s="119"/>
+      <c r="H159" s="119"/>
     </row>
     <row r="160" spans="1:8" ht="90" customHeight="1">
       <c r="A160" s="17"/>
@@ -4344,9 +4358,9 @@
       <c r="C160" s="17"/>
       <c r="D160" s="44"/>
       <c r="E160" s="44"/>
-      <c r="F160" s="168"/>
-      <c r="G160" s="167"/>
-      <c r="H160" s="167"/>
+      <c r="F160" s="121"/>
+      <c r="G160" s="119"/>
+      <c r="H160" s="119"/>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="17"/>
@@ -4354,9 +4368,9 @@
       <c r="C161" s="17"/>
       <c r="D161" s="44"/>
       <c r="E161" s="44"/>
-      <c r="F161" s="169"/>
-      <c r="G161" s="165"/>
-      <c r="H161" s="165"/>
+      <c r="F161" s="122"/>
+      <c r="G161" s="123"/>
+      <c r="H161" s="123"/>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="17"/>
@@ -4364,8 +4378,8 @@
       <c r="C162" s="17"/>
       <c r="D162" s="46"/>
       <c r="E162" s="46"/>
-      <c r="F162" s="170"/>
-      <c r="G162" s="170"/>
+      <c r="F162" s="117"/>
+      <c r="G162" s="117"/>
       <c r="H162" s="34"/>
     </row>
     <row r="163" spans="1:8">
@@ -4374,8 +4388,8 @@
       <c r="C163" s="17"/>
       <c r="D163" s="46"/>
       <c r="E163" s="46"/>
-      <c r="F163" s="170"/>
-      <c r="G163" s="170"/>
+      <c r="F163" s="117"/>
+      <c r="G163" s="117"/>
       <c r="H163" s="34"/>
     </row>
     <row r="164" spans="1:8">
@@ -4384,8 +4398,8 @@
       <c r="C164" s="17"/>
       <c r="D164" s="46"/>
       <c r="E164" s="46"/>
-      <c r="F164" s="170"/>
-      <c r="G164" s="170"/>
+      <c r="F164" s="117"/>
+      <c r="G164" s="117"/>
       <c r="H164" s="34"/>
     </row>
     <row r="165" spans="1:8">
@@ -4394,8 +4408,8 @@
       <c r="C165" s="17"/>
       <c r="D165" s="46"/>
       <c r="E165" s="46"/>
-      <c r="F165" s="170"/>
-      <c r="G165" s="170"/>
+      <c r="F165" s="117"/>
+      <c r="G165" s="117"/>
       <c r="H165" s="34"/>
     </row>
     <row r="166" spans="1:8">
@@ -4404,8 +4418,8 @@
       <c r="C166" s="17"/>
       <c r="D166" s="46"/>
       <c r="E166" s="46"/>
-      <c r="F166" s="170"/>
-      <c r="G166" s="170"/>
+      <c r="F166" s="117"/>
+      <c r="G166" s="117"/>
       <c r="H166" s="34"/>
     </row>
     <row r="167" spans="1:8">
@@ -4414,8 +4428,8 @@
       <c r="C167" s="17"/>
       <c r="D167" s="46"/>
       <c r="E167" s="46"/>
-      <c r="F167" s="170"/>
-      <c r="G167" s="170"/>
+      <c r="F167" s="117"/>
+      <c r="G167" s="117"/>
       <c r="H167" s="34"/>
     </row>
     <row r="168" spans="1:8">
@@ -4424,8 +4438,8 @@
       <c r="C168" s="17"/>
       <c r="D168" s="46"/>
       <c r="E168" s="46"/>
-      <c r="F168" s="170"/>
-      <c r="G168" s="170"/>
+      <c r="F168" s="117"/>
+      <c r="G168" s="117"/>
       <c r="H168" s="48"/>
     </row>
     <row r="169" spans="1:8">
@@ -4434,8 +4448,8 @@
       <c r="C169" s="17"/>
       <c r="D169" s="46"/>
       <c r="E169" s="46"/>
-      <c r="F169" s="170"/>
-      <c r="G169" s="170"/>
+      <c r="F169" s="117"/>
+      <c r="G169" s="117"/>
       <c r="H169" s="48"/>
     </row>
     <row r="170" spans="1:8">
@@ -4444,8 +4458,8 @@
       <c r="C170" s="17"/>
       <c r="D170" s="46"/>
       <c r="E170" s="46"/>
-      <c r="F170" s="170"/>
-      <c r="G170" s="170"/>
+      <c r="F170" s="117"/>
+      <c r="G170" s="117"/>
       <c r="H170" s="48"/>
     </row>
     <row r="171" spans="1:8">
@@ -4454,8 +4468,8 @@
       <c r="C171" s="17"/>
       <c r="D171" s="46"/>
       <c r="E171" s="46"/>
-      <c r="F171" s="170"/>
-      <c r="G171" s="170"/>
+      <c r="F171" s="117"/>
+      <c r="G171" s="117"/>
       <c r="H171" s="48"/>
     </row>
     <row r="172" spans="1:8" ht="26.25" customHeight="1">
@@ -4464,9 +4478,9 @@
       <c r="C172" s="17"/>
       <c r="D172" s="46"/>
       <c r="E172" s="46"/>
-      <c r="F172" s="171"/>
-      <c r="G172" s="171"/>
-      <c r="H172" s="171"/>
+      <c r="F172" s="120"/>
+      <c r="G172" s="120"/>
+      <c r="H172" s="120"/>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="17"/>
@@ -4532,9 +4546,9 @@
       <c r="A179" s="17"/>
       <c r="B179" s="17"/>
       <c r="C179" s="17"/>
-      <c r="D179" s="170"/>
-      <c r="E179" s="170"/>
-      <c r="F179" s="170"/>
+      <c r="D179" s="117"/>
+      <c r="E179" s="117"/>
+      <c r="F179" s="117"/>
       <c r="G179" s="17"/>
       <c r="H179" s="17"/>
     </row>
@@ -4542,9 +4556,9 @@
       <c r="A180" s="17"/>
       <c r="B180" s="17"/>
       <c r="C180" s="17"/>
-      <c r="D180" s="170"/>
-      <c r="E180" s="170"/>
-      <c r="F180" s="170"/>
+      <c r="D180" s="117"/>
+      <c r="E180" s="117"/>
+      <c r="F180" s="117"/>
       <c r="G180" s="17"/>
       <c r="H180" s="17"/>
     </row>
@@ -4552,9 +4566,9 @@
       <c r="A181" s="17"/>
       <c r="B181" s="17"/>
       <c r="C181" s="17"/>
-      <c r="D181" s="170"/>
-      <c r="E181" s="170"/>
-      <c r="F181" s="170"/>
+      <c r="D181" s="117"/>
+      <c r="E181" s="117"/>
+      <c r="F181" s="117"/>
       <c r="G181" s="17"/>
       <c r="H181" s="17"/>
     </row>
@@ -4562,9 +4576,9 @@
       <c r="A182" s="17"/>
       <c r="B182" s="17"/>
       <c r="C182" s="17"/>
-      <c r="D182" s="170"/>
-      <c r="E182" s="170"/>
-      <c r="F182" s="170"/>
+      <c r="D182" s="117"/>
+      <c r="E182" s="117"/>
+      <c r="F182" s="117"/>
       <c r="G182" s="17"/>
       <c r="H182" s="17"/>
     </row>
@@ -4572,9 +4586,9 @@
       <c r="A183" s="17"/>
       <c r="B183" s="17"/>
       <c r="C183" s="17"/>
-      <c r="D183" s="170"/>
-      <c r="E183" s="170"/>
-      <c r="F183" s="170"/>
+      <c r="D183" s="117"/>
+      <c r="E183" s="117"/>
+      <c r="F183" s="117"/>
       <c r="G183" s="17"/>
       <c r="H183" s="17"/>
     </row>
@@ -4582,9 +4596,9 @@
       <c r="A184" s="17"/>
       <c r="B184" s="17"/>
       <c r="C184" s="17"/>
-      <c r="D184" s="170"/>
-      <c r="E184" s="170"/>
-      <c r="F184" s="170"/>
+      <c r="D184" s="117"/>
+      <c r="E184" s="117"/>
+      <c r="F184" s="117"/>
       <c r="G184" s="17"/>
       <c r="H184" s="17"/>
     </row>
@@ -4592,9 +4606,9 @@
       <c r="A185" s="17"/>
       <c r="B185" s="17"/>
       <c r="C185" s="17"/>
-      <c r="D185" s="170"/>
-      <c r="E185" s="170"/>
-      <c r="F185" s="170"/>
+      <c r="D185" s="117"/>
+      <c r="E185" s="117"/>
+      <c r="F185" s="117"/>
       <c r="G185" s="17"/>
       <c r="H185" s="17"/>
     </row>
@@ -4602,9 +4616,9 @@
       <c r="A186" s="17"/>
       <c r="B186" s="17"/>
       <c r="C186" s="17"/>
-      <c r="D186" s="170"/>
-      <c r="E186" s="170"/>
-      <c r="F186" s="170"/>
+      <c r="D186" s="117"/>
+      <c r="E186" s="117"/>
+      <c r="F186" s="117"/>
       <c r="G186" s="17"/>
       <c r="H186" s="17"/>
     </row>
@@ -4612,9 +4626,9 @@
       <c r="A187" s="17"/>
       <c r="B187" s="17"/>
       <c r="C187" s="17"/>
-      <c r="D187" s="170"/>
-      <c r="E187" s="170"/>
-      <c r="F187" s="170"/>
+      <c r="D187" s="117"/>
+      <c r="E187" s="117"/>
+      <c r="F187" s="117"/>
       <c r="G187" s="17"/>
       <c r="H187" s="17"/>
     </row>
@@ -4622,9 +4636,9 @@
       <c r="A188" s="17"/>
       <c r="B188" s="17"/>
       <c r="C188" s="17"/>
-      <c r="D188" s="170"/>
-      <c r="E188" s="170"/>
-      <c r="F188" s="170"/>
+      <c r="D188" s="117"/>
+      <c r="E188" s="117"/>
+      <c r="F188" s="117"/>
       <c r="G188" s="17"/>
       <c r="H188" s="17"/>
     </row>
@@ -4632,9 +4646,9 @@
       <c r="A189" s="17"/>
       <c r="B189" s="17"/>
       <c r="C189" s="17"/>
-      <c r="D189" s="170"/>
-      <c r="E189" s="170"/>
-      <c r="F189" s="170"/>
+      <c r="D189" s="117"/>
+      <c r="E189" s="117"/>
+      <c r="F189" s="117"/>
       <c r="G189" s="17"/>
       <c r="H189" s="17"/>
     </row>
@@ -4642,9 +4656,9 @@
       <c r="A190" s="17"/>
       <c r="B190" s="17"/>
       <c r="C190" s="17"/>
-      <c r="D190" s="170"/>
-      <c r="E190" s="170"/>
-      <c r="F190" s="170"/>
+      <c r="D190" s="117"/>
+      <c r="E190" s="117"/>
+      <c r="F190" s="117"/>
       <c r="G190" s="17"/>
       <c r="H190" s="17"/>
     </row>
@@ -4662,21 +4676,21 @@
       <c r="A192" s="44"/>
       <c r="B192" s="44"/>
       <c r="C192" s="44"/>
-      <c r="D192" s="167"/>
-      <c r="E192" s="167"/>
-      <c r="F192" s="167"/>
-      <c r="G192" s="167"/>
-      <c r="H192" s="167"/>
+      <c r="D192" s="119"/>
+      <c r="E192" s="119"/>
+      <c r="F192" s="119"/>
+      <c r="G192" s="119"/>
+      <c r="H192" s="119"/>
     </row>
     <row r="193" spans="1:8" ht="32.25" customHeight="1">
       <c r="A193" s="44"/>
       <c r="B193" s="44"/>
       <c r="C193" s="44"/>
-      <c r="D193" s="167"/>
-      <c r="E193" s="167"/>
-      <c r="F193" s="167"/>
-      <c r="G193" s="167"/>
-      <c r="H193" s="167"/>
+      <c r="D193" s="119"/>
+      <c r="E193" s="119"/>
+      <c r="F193" s="119"/>
+      <c r="G193" s="119"/>
+      <c r="H193" s="119"/>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="17"/>
@@ -4712,88 +4726,110 @@
       <c r="A197" s="44"/>
       <c r="B197" s="44"/>
       <c r="C197" s="44"/>
-      <c r="D197" s="172"/>
-      <c r="E197" s="172"/>
-      <c r="F197" s="172"/>
-      <c r="G197" s="172"/>
-      <c r="H197" s="172"/>
+      <c r="D197" s="118"/>
+      <c r="E197" s="118"/>
+      <c r="F197" s="118"/>
+      <c r="G197" s="118"/>
+      <c r="H197" s="118"/>
     </row>
     <row r="198" spans="1:8" ht="17.25" customHeight="1">
       <c r="A198" s="44"/>
       <c r="B198" s="44"/>
       <c r="C198" s="44"/>
-      <c r="D198" s="172"/>
-      <c r="E198" s="172"/>
-      <c r="F198" s="172"/>
-      <c r="G198" s="172"/>
-      <c r="H198" s="172"/>
+      <c r="D198" s="118"/>
+      <c r="E198" s="118"/>
+      <c r="F198" s="118"/>
+      <c r="G198" s="118"/>
+      <c r="H198" s="118"/>
     </row>
     <row r="199" spans="1:8" ht="18" customHeight="1">
       <c r="A199" s="44"/>
       <c r="B199" s="44"/>
       <c r="C199" s="44"/>
-      <c r="D199" s="172"/>
-      <c r="E199" s="172"/>
-      <c r="F199" s="172"/>
-      <c r="G199" s="172"/>
-      <c r="H199" s="172"/>
+      <c r="D199" s="118"/>
+      <c r="E199" s="118"/>
+      <c r="F199" s="118"/>
+      <c r="G199" s="118"/>
+      <c r="H199" s="118"/>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="44"/>
       <c r="B200" s="44"/>
       <c r="C200" s="44"/>
-      <c r="D200" s="172"/>
-      <c r="E200" s="172"/>
-      <c r="F200" s="172"/>
-      <c r="G200" s="172"/>
-      <c r="H200" s="172"/>
+      <c r="D200" s="118"/>
+      <c r="E200" s="118"/>
+      <c r="F200" s="118"/>
+      <c r="G200" s="118"/>
+      <c r="H200" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="134">
-    <mergeCell ref="D181:F181"/>
-    <mergeCell ref="D182:F182"/>
-    <mergeCell ref="D199:H199"/>
-    <mergeCell ref="D200:H200"/>
-    <mergeCell ref="D189:F189"/>
-    <mergeCell ref="D190:F190"/>
-    <mergeCell ref="D192:H192"/>
-    <mergeCell ref="D193:H193"/>
-    <mergeCell ref="D183:F183"/>
-    <mergeCell ref="D184:F184"/>
-    <mergeCell ref="D197:H197"/>
-    <mergeCell ref="D198:H198"/>
-    <mergeCell ref="D185:F185"/>
-    <mergeCell ref="D186:F186"/>
-    <mergeCell ref="D187:F187"/>
-    <mergeCell ref="D188:F188"/>
-    <mergeCell ref="F171:G171"/>
-    <mergeCell ref="F172:H172"/>
-    <mergeCell ref="D179:F179"/>
-    <mergeCell ref="D180:F180"/>
-    <mergeCell ref="F165:G165"/>
-    <mergeCell ref="F166:G166"/>
-    <mergeCell ref="F167:G167"/>
-    <mergeCell ref="F168:G168"/>
-    <mergeCell ref="F169:G169"/>
-    <mergeCell ref="F170:G170"/>
-    <mergeCell ref="F152:H152"/>
-    <mergeCell ref="F154:H154"/>
-    <mergeCell ref="F157:H157"/>
-    <mergeCell ref="F159:H159"/>
-    <mergeCell ref="F160:H160"/>
-    <mergeCell ref="F161:H161"/>
-    <mergeCell ref="F162:G162"/>
-    <mergeCell ref="F163:G163"/>
-    <mergeCell ref="F164:G164"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="D146:H146"/>
-    <mergeCell ref="F148:H148"/>
-    <mergeCell ref="F150:H150"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
     <mergeCell ref="D77:F77"/>
     <mergeCell ref="F25:H25"/>
     <mergeCell ref="F26:H26"/>
@@ -4817,73 +4853,51 @@
     <mergeCell ref="F41:H41"/>
     <mergeCell ref="F42:H42"/>
     <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
     <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="D146:H146"/>
+    <mergeCell ref="F148:H148"/>
+    <mergeCell ref="F150:H150"/>
+    <mergeCell ref="F152:H152"/>
+    <mergeCell ref="F154:H154"/>
+    <mergeCell ref="F157:H157"/>
+    <mergeCell ref="F159:H159"/>
+    <mergeCell ref="F160:H160"/>
+    <mergeCell ref="F161:H161"/>
+    <mergeCell ref="F162:G162"/>
+    <mergeCell ref="F163:G163"/>
+    <mergeCell ref="F164:G164"/>
+    <mergeCell ref="F171:G171"/>
+    <mergeCell ref="F172:H172"/>
+    <mergeCell ref="D179:F179"/>
+    <mergeCell ref="D180:F180"/>
+    <mergeCell ref="F165:G165"/>
+    <mergeCell ref="F166:G166"/>
+    <mergeCell ref="F167:G167"/>
+    <mergeCell ref="F168:G168"/>
+    <mergeCell ref="F169:G169"/>
+    <mergeCell ref="F170:G170"/>
+    <mergeCell ref="D181:F181"/>
+    <mergeCell ref="D182:F182"/>
+    <mergeCell ref="D199:H199"/>
+    <mergeCell ref="D200:H200"/>
+    <mergeCell ref="D189:F189"/>
+    <mergeCell ref="D190:F190"/>
+    <mergeCell ref="D192:H192"/>
+    <mergeCell ref="D193:H193"/>
+    <mergeCell ref="D183:F183"/>
+    <mergeCell ref="D184:F184"/>
+    <mergeCell ref="D197:H197"/>
+    <mergeCell ref="D198:H198"/>
+    <mergeCell ref="D185:F185"/>
+    <mergeCell ref="D186:F186"/>
+    <mergeCell ref="D187:F187"/>
+    <mergeCell ref="D188:F188"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D85:E86">
@@ -4911,9 +4925,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5:D5"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4940,12 +4954,16 @@
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
       <c r="B2" s="88"/>
-      <c r="C2" s="173" t="s">
+      <c r="C2" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="174"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
     </row>
     <row r="3" spans="1:10" ht="18">
       <c r="B3" s="62"/>
@@ -4958,27 +4976,27 @@
       <c r="B4" s="90" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="175" t="s">
+      <c r="C4" s="207" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="176"/>
+      <c r="D4" s="208"/>
     </row>
     <row r="5" spans="1:10" s="64" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="177" t="s">
+      <c r="C5" s="209" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="178"/>
+      <c r="D5" s="210"/>
       <c r="E5" s="72"/>
       <c r="F5" s="63"/>
     </row>
     <row r="6" spans="1:10" ht="18">
       <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
+      <c r="C6" s="211"/>
+      <c r="D6" s="211"/>
       <c r="E6" s="61"/>
       <c r="F6" s="61"/>
     </row>
@@ -5123,9 +5141,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C2:D2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C2:J2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
@@ -5157,7 +5175,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5179,11 +5197,11 @@
     </row>
     <row r="2" spans="1:5" ht="49.5" customHeight="1">
       <c r="B2" s="95"/>
-      <c r="C2" s="173" t="s">
+      <c r="C2" s="172" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="182"/>
-      <c r="E2" s="174"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="173"/>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" s="61"/>
@@ -5192,27 +5210,27 @@
       <c r="E3" s="61"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1">
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="213" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="181" t="str">
+      <c r="C4" s="212" t="str">
         <f>IF(NOT(ISBLANK('Requerimientos de Usuario'!C4)),'Requerimientos de Usuario'!C4," - ")</f>
         <v>Curi Basilio</v>
       </c>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="212"/>
     </row>
     <row r="5" spans="1:5" s="64" customFormat="1" ht="15.75">
       <c r="A5" s="6"/>
-      <c r="B5" s="113" t="s">
+      <c r="B5" s="213" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="181" t="str">
+      <c r="C5" s="212" t="str">
         <f>IF(NOT(ISBLANK('Requerimientos de Usuario'!C5)),'Requerimientos de Usuario'!C5," - ")</f>
         <v>Manuel Saenz Tarazona</v>
       </c>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
+      <c r="D5" s="212"/>
+      <c r="E5" s="212"/>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="96"/>
@@ -5221,10 +5239,10 @@
       <c r="E6" s="96"/>
     </row>
     <row r="7" spans="1:5" ht="25.5" customHeight="1">
-      <c r="B7" s="185" t="s">
+      <c r="B7" s="179" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="186"/>
+      <c r="C7" s="180"/>
       <c r="D7" s="66" t="s">
         <v>57</v>
       </c>
@@ -5233,10 +5251,10 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="25.5">
-      <c r="B8" s="179">
+      <c r="B8" s="174">
         <v>1</v>
       </c>
-      <c r="C8" s="180"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="98" t="s">
         <v>136</v>
       </c>
@@ -5245,10 +5263,10 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="25.5">
-      <c r="B9" s="179">
+      <c r="B9" s="174">
         <v>2</v>
       </c>
-      <c r="C9" s="180"/>
+      <c r="C9" s="175"/>
       <c r="D9" s="98" t="s">
         <v>140</v>
       </c>
@@ -5257,50 +5275,50 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="B10" s="179"/>
-      <c r="C10" s="180"/>
+      <c r="B10" s="174"/>
+      <c r="C10" s="175"/>
       <c r="D10" s="58"/>
       <c r="E10" s="58"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="B11" s="179"/>
-      <c r="C11" s="180"/>
+      <c r="B11" s="174"/>
+      <c r="C11" s="175"/>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="B12" s="179"/>
-      <c r="C12" s="180"/>
+      <c r="B12" s="174"/>
+      <c r="C12" s="175"/>
       <c r="D12" s="58"/>
       <c r="E12" s="58"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="B13" s="179"/>
-      <c r="C13" s="180"/>
+      <c r="B13" s="174"/>
+      <c r="C13" s="175"/>
       <c r="D13" s="58"/>
       <c r="E13" s="58"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="B14" s="183"/>
-      <c r="C14" s="184"/>
+      <c r="B14" s="177"/>
+      <c r="C14" s="178"/>
       <c r="D14" s="59"/>
       <c r="E14" s="59"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="B15" s="179"/>
-      <c r="C15" s="180"/>
+      <c r="B15" s="174"/>
+      <c r="C15" s="175"/>
       <c r="D15" s="58"/>
       <c r="E15" s="58"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="B16" s="179"/>
-      <c r="C16" s="180"/>
+      <c r="B16" s="174"/>
+      <c r="C16" s="175"/>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="179"/>
-      <c r="C17" s="180"/>
+      <c r="B17" s="174"/>
+      <c r="C17" s="175"/>
       <c r="D17" s="58"/>
       <c r="E17" s="58"/>
     </row>
@@ -5340,7 +5358,7 @@
   <dimension ref="B1:E31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C12" sqref="C12:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5432,7 +5450,7 @@
   </sheetPr>
   <dimension ref="B2:G25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B31" sqref="B31:E31"/>
       <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
@@ -5451,18 +5469,18 @@
   <sheetData>
     <row r="2" spans="2:6" customFormat="1" ht="47.25" customHeight="1">
       <c r="B2" s="106"/>
-      <c r="C2" s="203" t="s">
+      <c r="C2" s="181" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="205"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="183"/>
     </row>
     <row r="4" spans="2:6" s="3" customFormat="1">
-      <c r="B4" s="206" t="s">
+      <c r="B4" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="207"/>
+      <c r="C4" s="185"/>
       <c r="D4" s="56" t="s">
         <v>61</v>
       </c>
@@ -5474,10 +5492,10 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="63.75">
-      <c r="B5" s="208" t="s">
+      <c r="B5" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="209"/>
+      <c r="C5" s="187"/>
       <c r="D5" s="99" t="s">
         <v>13</v>
       </c>
@@ -5487,10 +5505,10 @@
       <c r="F5" s="100"/>
     </row>
     <row r="6" spans="2:6" ht="25.5">
-      <c r="B6" s="208" t="s">
+      <c r="B6" s="186" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="209"/>
+      <c r="C6" s="187"/>
       <c r="D6" s="102" t="s">
         <v>76</v>
       </c>
@@ -5500,10 +5518,10 @@
       <c r="F6" s="100"/>
     </row>
     <row r="7" spans="2:6" ht="51">
-      <c r="B7" s="195" t="s">
+      <c r="B7" s="190" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="196"/>
+      <c r="C7" s="191"/>
       <c r="D7" s="102" t="s">
         <v>15</v>
       </c>
@@ -5513,10 +5531,10 @@
       <c r="F7" s="100"/>
     </row>
     <row r="8" spans="2:6" ht="178.5">
-      <c r="B8" s="195" t="s">
+      <c r="B8" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="196"/>
+      <c r="C8" s="191"/>
       <c r="D8" s="102" t="s">
         <v>31</v>
       </c>
@@ -5526,10 +5544,10 @@
       <c r="F8" s="100"/>
     </row>
     <row r="9" spans="2:6" ht="38.25">
-      <c r="B9" s="195" t="s">
+      <c r="B9" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="196"/>
+      <c r="C9" s="191"/>
       <c r="D9" s="102" t="s">
         <v>75</v>
       </c>
@@ -5539,10 +5557,10 @@
       <c r="F9" s="100"/>
     </row>
     <row r="10" spans="2:6" ht="25.5">
-      <c r="B10" s="195" t="s">
+      <c r="B10" s="190" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="196"/>
+      <c r="C10" s="191"/>
       <c r="D10" s="102" t="s">
         <v>79</v>
       </c>
@@ -5552,11 +5570,11 @@
       <c r="F10" s="100"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="197" t="s">
+      <c r="B11" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="198"/>
-      <c r="D11" s="190" t="s">
+      <c r="C11" s="193"/>
+      <c r="D11" s="188" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="102" t="s">
@@ -5567,9 +5585,9 @@
       </c>
     </row>
     <row r="12" spans="2:6" ht="25.5">
-      <c r="B12" s="201"/>
-      <c r="C12" s="202"/>
-      <c r="D12" s="210"/>
+      <c r="B12" s="194"/>
+      <c r="C12" s="195"/>
+      <c r="D12" s="189"/>
       <c r="E12" s="103" t="s">
         <v>88</v>
       </c>
@@ -5578,10 +5596,10 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="204">
-      <c r="B13" s="195" t="s">
+      <c r="B13" s="190" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="196"/>
+      <c r="C13" s="191"/>
       <c r="D13" s="102" t="s">
         <v>82</v>
       </c>
@@ -5591,11 +5609,11 @@
       <c r="F13" s="100"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="197" t="s">
+      <c r="B14" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="198"/>
-      <c r="D14" s="190" t="s">
+      <c r="C14" s="193"/>
+      <c r="D14" s="188" t="s">
         <v>77</v>
       </c>
       <c r="E14" s="107" t="s">
@@ -5606,9 +5624,9 @@
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="199"/>
-      <c r="C15" s="200"/>
-      <c r="D15" s="191"/>
+      <c r="B15" s="203"/>
+      <c r="C15" s="204"/>
+      <c r="D15" s="199"/>
       <c r="E15" s="107" t="s">
         <v>20</v>
       </c>
@@ -5617,9 +5635,9 @@
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="199"/>
-      <c r="C16" s="200"/>
-      <c r="D16" s="193"/>
+      <c r="B16" s="203"/>
+      <c r="C16" s="204"/>
+      <c r="D16" s="201"/>
       <c r="E16" s="107" t="s">
         <v>91</v>
       </c>
@@ -5628,9 +5646,9 @@
       </c>
     </row>
     <row r="17" spans="2:6" ht="25.5">
-      <c r="B17" s="199"/>
-      <c r="C17" s="200"/>
-      <c r="D17" s="193"/>
+      <c r="B17" s="203"/>
+      <c r="C17" s="204"/>
+      <c r="D17" s="201"/>
       <c r="E17" s="107" t="s">
         <v>63</v>
       </c>
@@ -5639,9 +5657,9 @@
       </c>
     </row>
     <row r="18" spans="2:6" ht="25.5">
-      <c r="B18" s="201"/>
-      <c r="C18" s="202"/>
-      <c r="D18" s="194"/>
+      <c r="B18" s="194"/>
+      <c r="C18" s="195"/>
+      <c r="D18" s="202"/>
       <c r="E18" s="107" t="s">
         <v>92</v>
       </c>
@@ -5650,10 +5668,10 @@
       </c>
     </row>
     <row r="19" spans="2:6" ht="89.25">
-      <c r="B19" s="195" t="s">
+      <c r="B19" s="190" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="196"/>
+      <c r="C19" s="191"/>
       <c r="D19" s="105" t="s">
         <v>83</v>
       </c>
@@ -5663,61 +5681,68 @@
       <c r="F19" s="100"/>
     </row>
     <row r="20" spans="2:6" ht="12.75" customHeight="1">
-      <c r="B20" s="197" t="s">
+      <c r="B20" s="192" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="198"/>
-      <c r="D20" s="190" t="s">
+      <c r="C20" s="193"/>
+      <c r="D20" s="188" t="s">
         <v>74</v>
       </c>
       <c r="E20" s="109" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="187"/>
+      <c r="F20" s="196"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="199"/>
-      <c r="C21" s="200"/>
-      <c r="D21" s="191"/>
+      <c r="B21" s="203"/>
+      <c r="C21" s="204"/>
+      <c r="D21" s="199"/>
       <c r="E21" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="F21" s="188"/>
+      <c r="F21" s="197"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="199"/>
-      <c r="C22" s="200"/>
-      <c r="D22" s="191"/>
+      <c r="B22" s="203"/>
+      <c r="C22" s="204"/>
+      <c r="D22" s="199"/>
       <c r="E22" s="109" t="s">
         <v>121</v>
       </c>
-      <c r="F22" s="188"/>
+      <c r="F22" s="197"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="199"/>
-      <c r="C23" s="200"/>
-      <c r="D23" s="191"/>
+      <c r="B23" s="203"/>
+      <c r="C23" s="204"/>
+      <c r="D23" s="199"/>
       <c r="E23" s="108" t="s">
         <v>114</v>
       </c>
-      <c r="F23" s="188"/>
+      <c r="F23" s="197"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="199"/>
-      <c r="C24" s="200"/>
-      <c r="D24" s="191"/>
+      <c r="B24" s="203"/>
+      <c r="C24" s="204"/>
+      <c r="D24" s="199"/>
       <c r="E24" s="104"/>
-      <c r="F24" s="188"/>
+      <c r="F24" s="197"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="201"/>
-      <c r="C25" s="202"/>
-      <c r="D25" s="192"/>
+      <c r="B25" s="194"/>
+      <c r="C25" s="195"/>
+      <c r="D25" s="200"/>
       <c r="E25" s="108"/>
-      <c r="F25" s="189"/>
+      <c r="F25" s="198"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="F20:F25"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C25"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
@@ -5728,13 +5753,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C12"/>
-    <mergeCell ref="F20:F25"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.67" right="0.75" top="0.79" bottom="0.7" header="0" footer="0.17"/>
